--- a/biology/Zoologie/Pierre_Dandelot/Pierre_Dandelot.xlsx
+++ b/biology/Zoologie/Pierre_Dandelot/Pierre_Dandelot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Dandelot, né à Neuilly-sur-Seine le 10 septembre 1910 et mort à Draveil le 30 janvier 2007, est un sculpteur, illustrateur et zoologiste français.
 </t>
@@ -511,13 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève d'Émile Oscar Guillaume, Camille Lefèvre et Paul Niclausse à l'École nationale supérieure des arts décoratifs (1926-1932), il devient professeur en 1945[1].
-Il expose en 1929 au Salon des artistes français dont il est sociétaire dès 1927, une statuette en plâtre nommée Dromadaire couché[2], y obtient une médaille d'honneur en 1930, une médaille d'argent en 1934[3] puis une médaille d'or en 1936[1], année où il est placé en hors-concours.
-Spécialiste des mammifères, il enseigne le dessin à l'École nationale supérieure des arts décoratifs et au Muséum national d'histoire naturelle de Paris de 1955 à 1997[4].
-Pierre Dandelot et Émile Guillaume: Histoire d'une amitié
-Dans ses souvenirs [5], Pierre Dandelot raconte sa première rencontre avec le sculpteur Émile Guillaume.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève d'Émile Oscar Guillaume, Camille Lefèvre et Paul Niclausse à l'École nationale supérieure des arts décoratifs (1926-1932), il devient professeur en 1945.
+Il expose en 1929 au Salon des artistes français dont il est sociétaire dès 1927, une statuette en plâtre nommée Dromadaire couché, y obtient une médaille d'honneur en 1930, une médaille d'argent en 1934 puis une médaille d'or en 1936, année où il est placé en hors-concours.
+Spécialiste des mammifères, il enseigne le dessin à l'École nationale supérieure des arts décoratifs et au Muséum national d'histoire naturelle de Paris de 1955 à 1997.
 </t>
         </is>
       </c>
@@ -543,10 +555,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pierre Dandelot et Émile Guillaume: Histoire d'une amitié</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ses souvenirs , Pierre Dandelot raconte sa première rencontre avec le sculpteur Émile Guillaume.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Dandelot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Dandelot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Guide des grands mammifères d'Afrique, avec Jean Dorst, Delachaux et Niestlé, 1972, 1997 puis 2002
 A Field Guide to the Larger Mammals of Africa, avec Jean Dorst, 1993</t>
